--- a/biology/Botanique/Plan-de-dieu/Plan-de-dieu.xlsx
+++ b/biology/Botanique/Plan-de-dieu/Plan-de-dieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le plan-de-dieu[1], ou côtes-du-rhône villages Plan-de-Dieu, est un vin rouge produit sur les communes de Camaret-sur-Aigues, Jonquières, Violès et Travaillan, dans le département de Vaucluse.
+Le plan-de-dieu, ou côtes-du-rhône villages Plan-de-Dieu, est un vin rouge produit sur les communes de Camaret-sur-Aigues, Jonquières, Violès et Travaillan, dans le département de Vaucluse.
 Il s'agit d'une des dix-sept dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Plan de Dieu (Plan Dei) est utilisé pour la première fois le 18 septembre 1326 dans la rédaction d'un acte réglant entre les habitants de Camaret et de Travaillan les limites de leurs vignes et pâturages[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Plan de Dieu (Plan Dei) est utilisé pour la première fois le 18 septembre 1326 dans la rédaction d'un acte réglant entre les habitants de Camaret et de Travaillan les limites de leurs vignes et pâturages.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette appellation[4] ne porte pas un nom de commune, mais de lieu-dit. Il reçut son nom des religieuses de Prébayon quand elles quittèrent le massif des Dentelles de Montmirail pour s'installer ici. C'était pour elles le meilleur terroir à vignes, la « plaine de Dieu ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette appellation ne porte pas un nom de commune, mais de lieu-dit. Il reçut son nom des religieuses de Prébayon quand elles quittèrent le massif des Dentelles de Montmirail pour s'installer ici. C'était pour elles le meilleur terroir à vignes, la « plaine de Dieu ».
 </t>
         </is>
       </c>
@@ -575,100 +591,459 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à l’est d’Orange, ce vignoble est limité par le cours de deux rivières, l'Aygues et l'Ouvèze.  
-Orographie
-Descendues des Baronnies, ces rivières au régime torrentueux ont charrié, après la dernière ère glaciaire, des alluvions chargées qui se sont déposées en un puissant dépôt de galets roulés formant une terrasse entre leurs lits.
-Géologie
-Le terroir est assez uniforme. Il est essentiellement composé d'une vaste terrasse alluviale, qui a formé un interland entre l'Aigues et l'Ouvèze à l'époque du Riss. Elle est surmontée de galets roulés calcaires du Quaternaire. Ces dépôts du diluvium alpin reposent soit sur de l'argile bleue du pliocène, soit sur des safres gréseux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendues des Baronnies, ces rivières au régime torrentueux ont charrié, après la dernière ère glaciaire, des alluvions chargées qui se sont déposées en un puissant dépôt de galets roulés formant une terrasse entre leurs lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir est assez uniforme. Il est essentiellement composé d'une vaste terrasse alluviale, qui a formé un interland entre l'Aigues et l'Ouvèze à l'époque du Riss. Elle est surmontée de galets roulés calcaires du Quaternaire. Ces dépôts du diluvium alpin reposent soit sur de l'argile bleue du pliocène, soit sur des safres gréseux.
 			Dépôt de galets roulés.
 			Diluvium alpin du quaternaire reposant sur des safres gréseux.
 			Syrah sur le terroir du Plan-de-Dieu.
-Climat
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[5]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble
 La saisonnalité des pluies est très marquée
 Les températures sont très chaudes pendant l'été.
-Source : [6]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Source : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur les communes de Camaret-sur-Aigues, Jonquières, Travaillan et Violès.
-Encépagement
-L’appellation ne produisant que des vins rouges, principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
-Méthodes culturales
-Les vins de ce terroir doivent titrer 12,5 % de degré alcoolique au minimum. Le rendement moyen est fixé à 35 hl/ha ;
-Terroir et vins
-Sur ce terroir homogène de 44 hectares, composé de galets roulés et d’argile rouge, la typicité des vins, grâce à un faible rendement, est caractérisée par des arômes de thym, de romarin, d’épices et de sous-bois.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Camaret-sur-Aigues, Jonquières, Travaillan et Violès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’appellation ne produisant que des vins rouges, principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de ce terroir doivent titrer 12,5 % de degré alcoolique au minimum. Le rendement moyen est fixé à 35 hl/ha ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur ce terroir homogène de 44 hectares, composé de galets roulés et d’argile rouge, la typicité des vins, grâce à un faible rendement, est caractérisée par des arômes de thym, de romarin, d’épices et de sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Il y a cinquante caves indépendantes, quatre caves coopératives et un négociant.
-Type de vins et gastronomie
-Ces vins rouges, avec leur robe intense, présentent à l'agitation un nez de fruits rouges et d'épices qui évolue avec l'âge vers des arômes d'anis, de réglisse et de cuir. En bouche, ces vins possédant une très longue persistance aromatique, sont tout en rondeur et en onctuosité. Ils se comportent parfaitement sur les venaisons les plus riches. Les restaurateurs le servent en particulier sur un civet de sanglier, un lièvre à la royale ou un civet de chevreuil sauce grand veneur.
-Commercialisation
-Il affiche un potentiel de production de 60 000 hl soit environ 8 millions de bouteilles destinées à la vente en collaboration avec le négoce, pour moitié vers le marché français (consommateurs particuliers et professionnels) et moitié à l’exportation.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a cinquante caves indépendantes, quatre caves coopératives et un négociant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces vins rouges, avec leur robe intense, présentent à l'agitation un nez de fruits rouges et d'épices qui évolue avec l'âge vers des arômes d'anis, de réglisse et de cuir. En bouche, ces vins possédant une très longue persistance aromatique, sont tout en rondeur et en onctuosité. Ils se comportent parfaitement sur les venaisons les plus riches. Les restaurateurs le servent en particulier sur un civet de sanglier, un lièvre à la royale ou un civet de chevreuil sauce grand veneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affiche un potentiel de production de 60 000 hl soit environ 8 millions de bouteilles destinées à la vente en collaboration avec le négoce, pour moitié vers le marché français (consommateurs particuliers et professionnels) et moitié à l’exportation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste de producteurs[7] :
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste de producteurs :
 Domaine le Renard et Domaine Valand le vieux travaillan 84850 Travaillan
 Cave Coopérative de Cairanne, 84830 Cairanne
 Domaine Rabasse Charavin, 84290 Cairanne
@@ -704,31 +1079,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan-de-dieu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>La place du Plan-de-Dieu parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
